--- a/excel/marks.xlsx
+++ b/excel/marks.xlsx
@@ -55,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,10 +140,10 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -150,6 +151,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/excel/marks.xlsx
+++ b/excel/marks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Enrollment No</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>67</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>12</t>
@@ -125,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="A1" sqref="A1"/>
@@ -186,6 +189,29 @@
       </c>
       <c r="G2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -248,19 +274,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -271,7 +297,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -280,10 +306,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/excel/marks.xlsx
+++ b/excel/marks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Industry_Marks" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
   <si>
     <t xml:space="preserve">Enrollment No</t>
   </si>
@@ -42,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Knowledge gained / Skils Achieved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp</t>
   </si>
   <si>
     <t xml:space="preserve">Knowledge gained / Skills Achieved</t>
@@ -144,13 +144,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -159,6 +159,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -183,58 +184,13 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -251,20 +207,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -287,55 +244,14 @@
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
